--- a/data/trans_bre/PCS12_SP_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>364,37%</t>
+          <t>375,36%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,0</t>
+          <t>0,97; 9,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 16903,91</t>
+          <t>-36,41; 17012,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-30,54%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 1,8</t>
+          <t>-7,96; 1,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 28,31</t>
+          <t>-62,03; 18,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,43</t>
+          <t>-1,05; 6,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 69,58</t>
+          <t>-7,23; 68,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>-43,08%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 6,64</t>
+          <t>-50,02; 5,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 34,97</t>
+          <t>-69,95; 28,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>18,49%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,81</t>
+          <t>1,07; 10,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 38,49</t>
+          <t>2,94; 37,82</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,67</t>
+          <t>22,93</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>18,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,39</t>
+          <t>18,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>-0,81%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,85; 26,24</t>
+          <t>15,44; 29,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 23,6</t>
+          <t>10,33; 26,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,83</t>
+          <t>11,65; 26,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 21,99</t>
+          <t>-21,53; 17,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,61; 56,56</t>
+          <t>36,49; 89,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,59; 46,38</t>
+          <t>22,21; 69,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,19; 56,59</t>
+          <t>32,44; 90,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 52,37</t>
+          <t>-64,45; 56,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>13,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>21,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>37,04%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,25; 20,98</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 21,02</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 21,56</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 26,47</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 33,25</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 33,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 37,47</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25,59; 49,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11,4</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11,27</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9,46</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72,14%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>63,08%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>56,7%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>9,48; 13,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>9,09; 13,25</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>7,3; 11,48</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 9,3</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 7,92</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>56,68; 90,99</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>48,37; 78,74</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>41,43; 72,66</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 43,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-43,47; 37,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/PCS12_SP_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,99</t>
+          <t>-1,47; 3,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 6,21</t>
+          <t>0,13; 6,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,48</t>
+          <t>0,41; 5,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,19</t>
+          <t>0,42; 8,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 131,49</t>
+          <t>-28,53; 111,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 258,31</t>
+          <t>-0,72; 271,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 631,4</t>
+          <t>4,06; 529,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 17012,64</t>
+          <t>-49,19; 11139,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,95</t>
+          <t>2,15; 7,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 3,44</t>
+          <t>-2,46; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,73</t>
+          <t>-0,81; 4,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 1,44</t>
+          <t>-7,72; 1,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,12; 235,23</t>
+          <t>38,71; 241,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 69,29</t>
+          <t>-32,21; 64,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 135,92</t>
+          <t>-13,96; 145,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 18,19</t>
+          <t>-62,08; 16,0</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,81</t>
+          <t>3,42; 10,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 9,62</t>
+          <t>2,25; 9,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,18</t>
+          <t>-0,31; 6,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,4</t>
+          <t>-0,97; 6,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,04; 179,4</t>
+          <t>38,66; 187,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,26; 127,79</t>
+          <t>20,04; 125,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 105,69</t>
+          <t>-3,23; 105,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 68,79</t>
+          <t>-6,34; 67,69</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,89</t>
+          <t>8,27; 18,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 11,52</t>
+          <t>2,31; 11,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 8,53</t>
+          <t>-0,1; 8,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 5,76</t>
+          <t>-52,03; 5,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,97; 198,33</t>
+          <t>60,81; 199,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,61; 104,54</t>
+          <t>13,87; 99,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 68,85</t>
+          <t>-0,92; 68,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,95; 28,97</t>
+          <t>-69,72; 27,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 11,31</t>
+          <t>-1,4; 12,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 26,51</t>
+          <t>13,63; 26,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 18,54</t>
+          <t>6,09; 18,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,92</t>
+          <t>1,2; 10,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 45,23</t>
+          <t>-4,59; 47,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,07; 129,76</t>
+          <t>50,13; 132,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,43; 87,35</t>
+          <t>23,27; 90,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 37,82</t>
+          <t>3,52; 36,14</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,44; 29,71</t>
+          <t>15,66; 30,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 26,31</t>
+          <t>10,73; 26,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,65; 26,62</t>
+          <t>11,05; 25,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 17,52</t>
+          <t>-19,14; 18,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,49; 89,35</t>
+          <t>36,55; 88,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,21; 69,68</t>
+          <t>21,92; 68,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,44; 90,48</t>
+          <t>29,51; 87,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 56,45</t>
+          <t>-58,45; 59,7</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 20,98</t>
+          <t>6,76; 22,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 21,02</t>
+          <t>5,93; 20,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 21,56</t>
+          <t>6,41; 21,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,75; 26,47</t>
+          <t>15,89; 26,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 33,25</t>
+          <t>9,41; 36,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,83; 33,29</t>
+          <t>7,98; 31,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,44; 37,47</t>
+          <t>9,75; 36,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,59; 49,35</t>
+          <t>25,75; 50,51</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,48; 13,68</t>
+          <t>9,49; 13,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,25</t>
+          <t>9,16; 13,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,48</t>
+          <t>7,46; 11,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 7,92</t>
+          <t>-14,7; 7,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>56,68; 90,99</t>
+          <t>57,57; 91,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,37; 78,74</t>
+          <t>49,15; 79,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,43; 72,66</t>
+          <t>41,2; 72,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 37,19</t>
+          <t>-34,03; 35,88</t>
         </is>
       </c>
     </row>
